--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ncam1-Robo3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ncam1-Robo3.xlsx
@@ -537,28 +537,28 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.300794</v>
+        <v>0.3912683333333333</v>
       </c>
       <c r="H2">
-        <v>0.902382</v>
+        <v>1.173805</v>
       </c>
       <c r="I2">
-        <v>0.003836667885433927</v>
+        <v>0.004923718964983145</v>
       </c>
       <c r="J2">
-        <v>0.003836667885433927</v>
+        <v>0.004923718964983145</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2.588157666666667</v>
+        <v>4.779790999999999</v>
       </c>
       <c r="N2">
-        <v>7.764473</v>
+        <v>14.339373</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -567,16 +567,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.7785022971873333</v>
+        <v>1.870180858251666</v>
       </c>
       <c r="R2">
-        <v>7.006520674686</v>
+        <v>16.831627724265</v>
       </c>
       <c r="S2">
-        <v>0.003836667885433927</v>
+        <v>0.004923718964983145</v>
       </c>
       <c r="T2">
-        <v>0.003836667885433927</v>
+        <v>0.004923718964983145</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,22 +605,22 @@
         <v>18.805976</v>
       </c>
       <c r="I3">
-        <v>0.07995758356598556</v>
+        <v>0.07888477275715973</v>
       </c>
       <c r="J3">
-        <v>0.07995758356598556</v>
+        <v>0.07888477275715973</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>2.588157666666667</v>
+        <v>4.779790999999999</v>
       </c>
       <c r="N3">
-        <v>7.764473</v>
+        <v>14.339373</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>16.22427698784978</v>
+        <v>29.96287827700533</v>
       </c>
       <c r="R3">
-        <v>146.018492890648</v>
+        <v>269.665904493048</v>
       </c>
       <c r="S3">
-        <v>0.07995758356598556</v>
+        <v>0.07888477275715973</v>
       </c>
       <c r="T3">
-        <v>0.07995758356598556</v>
+        <v>0.07888477275715973</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,28 +661,28 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>71.78493233333334</v>
+        <v>72.68848166666666</v>
       </c>
       <c r="H4">
-        <v>215.354797</v>
+        <v>218.065445</v>
       </c>
       <c r="I4">
-        <v>0.9156264571146617</v>
+        <v>0.9147115297293749</v>
       </c>
       <c r="J4">
-        <v>0.9156264571146617</v>
+        <v>0.9147115297293749</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>2.588157666666667</v>
+        <v>4.779790999999999</v>
       </c>
       <c r="N4">
-        <v>7.764473</v>
+        <v>14.339373</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -691,16 +691,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>185.7907229696646</v>
+        <v>347.4357504739983</v>
       </c>
       <c r="R4">
-        <v>1672.116506726981</v>
+        <v>3126.921754265984</v>
       </c>
       <c r="S4">
-        <v>0.9156264571146617</v>
+        <v>0.9147115297293749</v>
       </c>
       <c r="T4">
-        <v>0.9156264571146617</v>
+        <v>0.9147115297293749</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,34 +717,34 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.04541633333333334</v>
+        <v>0.117608</v>
       </c>
       <c r="H5">
-        <v>0.136249</v>
+        <v>0.352824</v>
       </c>
       <c r="I5">
-        <v>0.0005792914339187696</v>
+        <v>0.001479978548482255</v>
       </c>
       <c r="J5">
-        <v>0.0005792914339187696</v>
+        <v>0.001479978548482255</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>2.588157666666667</v>
+        <v>4.779790999999999</v>
       </c>
       <c r="N5">
-        <v>7.764473</v>
+        <v>14.339373</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -753,16 +753,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.1175446313085556</v>
+        <v>0.5621416599279999</v>
       </c>
       <c r="R5">
-        <v>1.057901681777</v>
+        <v>5.059274939352</v>
       </c>
       <c r="S5">
-        <v>0.0005792914339187696</v>
+        <v>0.001479978548482255</v>
       </c>
       <c r="T5">
-        <v>0.0005792914339187696</v>
+        <v>0.001479978548482255</v>
       </c>
     </row>
   </sheetData>
